--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H2">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I2">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J2">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.2650007434923333</v>
+        <v>0.01323439599777778</v>
       </c>
       <c r="R2">
-        <v>2.385006691431</v>
+        <v>0.11910956398</v>
       </c>
       <c r="S2">
-        <v>0.07973780605006135</v>
+        <v>0.002820684568228769</v>
       </c>
       <c r="T2">
-        <v>0.0849127283348456</v>
+        <v>0.003310120348493708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H3">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I3">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J3">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>2.019503203247444</v>
+        <v>0.1742310388988889</v>
       </c>
       <c r="R3">
-        <v>18.175528829227</v>
+        <v>1.56807935009</v>
       </c>
       <c r="S3">
-        <v>0.6076615205522286</v>
+        <v>0.0371343582896479</v>
       </c>
       <c r="T3">
-        <v>0.6470982858720238</v>
+        <v>0.04357778830973854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.13889</v>
+      </c>
+      <c r="I4">
+        <v>0.04104862706247998</v>
+      </c>
+      <c r="J4">
+        <v>0.04774538909277917</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.5366223333333333</v>
-      </c>
-      <c r="H4">
-        <v>1.609867</v>
-      </c>
-      <c r="I4">
-        <v>0.7107420539316774</v>
-      </c>
-      <c r="J4">
-        <v>0.748606129033158</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.0002185841637777778</v>
+        <v>0.00510795753</v>
       </c>
       <c r="R4">
-        <v>0.001967257474</v>
+        <v>0.03064774518</v>
       </c>
       <c r="S4">
-        <v>6.577121794917355E-05</v>
+        <v>0.001088673558087442</v>
       </c>
       <c r="T4">
-        <v>7.0039719408179E-05</v>
+        <v>0.000851717709022949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H5">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I5">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J5">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.07735867063983333</v>
+        <v>2.304030777777778E-05</v>
       </c>
       <c r="R5">
-        <v>0.4641520238389999</v>
+        <v>0.00020736277</v>
       </c>
       <c r="S5">
-        <v>0.02327695611143847</v>
+        <v>4.910646515861518E-06</v>
       </c>
       <c r="T5">
-        <v>0.01652507510688048</v>
+        <v>5.762725523974507E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H6">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I6">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J6">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>0.056575748515</v>
+        <v>0.1533992179548889</v>
       </c>
       <c r="R6">
-        <v>0.33945449109</v>
+        <v>1.380592961594</v>
       </c>
       <c r="S6">
-        <v>0.01702344681292047</v>
+        <v>0.03269441287206237</v>
       </c>
       <c r="T6">
-        <v>0.01208550361201464</v>
+        <v>0.03836743836898639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H7">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I7">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J7">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +874,22 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
-        <v>0.4311493765883334</v>
+        <v>2.019503203247444</v>
       </c>
       <c r="R7">
-        <v>2.58689625953</v>
+        <v>18.175528829227</v>
       </c>
       <c r="S7">
-        <v>0.1297313543952378</v>
+        <v>0.4304224780522759</v>
       </c>
       <c r="T7">
-        <v>0.09210054634442276</v>
+        <v>0.5051079511327946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H8">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I8">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J8">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>4.666614333333334E-05</v>
+        <v>0.059206078659</v>
       </c>
       <c r="R8">
-        <v>0.0002799968600000001</v>
+        <v>0.355236471954</v>
       </c>
       <c r="S8">
-        <v>1.404168092956822E-05</v>
+        <v>0.01261876042146703</v>
       </c>
       <c r="T8">
-        <v>9.968650148115376E-06</v>
+        <v>0.00987221710037906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H9">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I9">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J9">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>0.0165155185525</v>
+        <v>0.0002670590478888889</v>
       </c>
       <c r="R9">
-        <v>0.06606207421</v>
+        <v>0.002403531431</v>
       </c>
       <c r="S9">
-        <v>0.004969462341125599</v>
+        <v>5.691905662431012E-05</v>
       </c>
       <c r="T9">
-        <v>0.002351989611091801</v>
+        <v>6.679546152425852E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H10">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I10">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J10">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N10">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O10">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P10">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q10">
-        <v>0.05127430811966666</v>
+        <v>0.006648070950888888</v>
       </c>
       <c r="R10">
-        <v>0.4614687730769999</v>
+        <v>0.05983263855799999</v>
       </c>
       <c r="S10">
-        <v>0.01542826175623673</v>
+        <v>0.001416922324434826</v>
       </c>
       <c r="T10">
-        <v>0.01642954407804665</v>
+        <v>0.001662781961221524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H11">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I11">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J11">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>11.290081</v>
       </c>
       <c r="O11">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P11">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q11">
-        <v>0.3907484489565555</v>
+        <v>0.08752196236544445</v>
       </c>
       <c r="R11">
-        <v>3.516736040609</v>
+        <v>0.787697661289</v>
       </c>
       <c r="S11">
-        <v>0.1175748551745536</v>
+        <v>0.01865380548283134</v>
       </c>
       <c r="T11">
-        <v>0.1252053728463226</v>
+        <v>0.02189055160617861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H12">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I12">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J12">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N12">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O12">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P12">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q12">
-        <v>4.229328422222222E-05</v>
+        <v>0.002565894513</v>
       </c>
       <c r="R12">
-        <v>0.0003806395579999999</v>
+        <v>0.015395367078</v>
       </c>
       <c r="S12">
-        <v>1.272590276573786E-05</v>
+        <v>0.0005468764164029285</v>
       </c>
       <c r="T12">
-        <v>1.355180406750015E-05</v>
+        <v>0.0004278457256881138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,46 +1222,542 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H13">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I13">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J13">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.001493</v>
+      </c>
+      <c r="O13">
+        <v>0.0001196299819817856</v>
+      </c>
+      <c r="P13">
+        <v>0.0001206970062130259</v>
+      </c>
+      <c r="Q13">
+        <v>1.157390188888889E-05</v>
+      </c>
+      <c r="R13">
+        <v>0.000104165117</v>
+      </c>
+      <c r="S13">
+        <v>2.466778722479244E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.894805940544152E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1441585</v>
-      </c>
-      <c r="N13">
-        <v>0.288317</v>
-      </c>
-      <c r="O13">
-        <v>0.03275021645711715</v>
-      </c>
-      <c r="P13">
-        <v>0.02207445873870014</v>
-      </c>
-      <c r="Q13">
-        <v>0.01496792900216666</v>
-      </c>
-      <c r="R13">
-        <v>0.08980757401299999</v>
-      </c>
-      <c r="S13">
-        <v>0.004503798004553082</v>
-      </c>
-      <c r="T13">
-        <v>0.003197394020727857</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.474576</v>
+      </c>
+      <c r="H14">
+        <v>0.949152</v>
+      </c>
+      <c r="I14">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J14">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2858606666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.857582</v>
+      </c>
+      <c r="O14">
+        <v>0.0687156860066334</v>
+      </c>
+      <c r="P14">
+        <v>0.06932858672617494</v>
+      </c>
+      <c r="Q14">
+        <v>0.135662611744</v>
+      </c>
+      <c r="R14">
+        <v>0.813975670464</v>
+      </c>
+      <c r="S14">
+        <v>0.0289141593992023</v>
+      </c>
+      <c r="T14">
+        <v>0.02262083194624162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.474576</v>
+      </c>
+      <c r="H15">
+        <v>0.949152</v>
+      </c>
+      <c r="I15">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J15">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.290081</v>
+      </c>
+      <c r="O15">
+        <v>0.9046431256549901</v>
+      </c>
+      <c r="P15">
+        <v>0.9127119736118995</v>
+      </c>
+      <c r="Q15">
+        <v>1.786000493552</v>
+      </c>
+      <c r="R15">
+        <v>10.716002961312</v>
+      </c>
+      <c r="S15">
+        <v>0.3806553795017915</v>
+      </c>
+      <c r="T15">
+        <v>0.2978036210653391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.474576</v>
+      </c>
+      <c r="H16">
+        <v>0.949152</v>
+      </c>
+      <c r="I16">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J16">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.110331</v>
+      </c>
+      <c r="N16">
+        <v>0.220662</v>
+      </c>
+      <c r="O16">
+        <v>0.02652155835639462</v>
+      </c>
+      <c r="P16">
+        <v>0.01783874265571248</v>
+      </c>
+      <c r="Q16">
+        <v>0.052360444656</v>
+      </c>
+      <c r="R16">
+        <v>0.209441778624</v>
+      </c>
+      <c r="S16">
+        <v>0.01115973092021541</v>
+      </c>
+      <c r="T16">
+        <v>0.005820502318054216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.474576</v>
+      </c>
+      <c r="H17">
+        <v>0.949152</v>
+      </c>
+      <c r="I17">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J17">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.001493</v>
+      </c>
+      <c r="O17">
+        <v>0.0001196299819817856</v>
+      </c>
+      <c r="P17">
+        <v>0.0001206970062130259</v>
+      </c>
+      <c r="Q17">
+        <v>0.000236180656</v>
+      </c>
+      <c r="R17">
+        <v>0.001417083936</v>
+      </c>
+      <c r="S17">
+        <v>5.033785688483321E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.938154263468537E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.047098</v>
+      </c>
+      <c r="H18">
+        <v>0.141294</v>
+      </c>
+      <c r="I18">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J18">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2858606666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.857582</v>
+      </c>
+      <c r="O18">
+        <v>0.0687156860066334</v>
+      </c>
+      <c r="P18">
+        <v>0.06932858672617494</v>
+      </c>
+      <c r="Q18">
+        <v>0.01346346567866667</v>
+      </c>
+      <c r="R18">
+        <v>0.121171191108</v>
+      </c>
+      <c r="S18">
+        <v>0.002869506842705131</v>
+      </c>
+      <c r="T18">
+        <v>0.003367414101231694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.047098</v>
+      </c>
+      <c r="H19">
+        <v>0.141294</v>
+      </c>
+      <c r="I19">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J19">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N19">
+        <v>11.290081</v>
+      </c>
+      <c r="O19">
+        <v>0.9046431256549901</v>
+      </c>
+      <c r="P19">
+        <v>0.9127119736118995</v>
+      </c>
+      <c r="Q19">
+        <v>0.1772467449793333</v>
+      </c>
+      <c r="R19">
+        <v>1.595220704814</v>
+      </c>
+      <c r="S19">
+        <v>0.03777710432844344</v>
+      </c>
+      <c r="T19">
+        <v>0.04433206149784864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.047098</v>
+      </c>
+      <c r="H20">
+        <v>0.141294</v>
+      </c>
+      <c r="I20">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J20">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.110331</v>
+      </c>
+      <c r="N20">
+        <v>0.220662</v>
+      </c>
+      <c r="O20">
+        <v>0.02652155835639462</v>
+      </c>
+      <c r="P20">
+        <v>0.01783874265571248</v>
+      </c>
+      <c r="Q20">
+        <v>0.005196369438</v>
+      </c>
+      <c r="R20">
+        <v>0.031178216628</v>
+      </c>
+      <c r="S20">
+        <v>0.001107517040221809</v>
+      </c>
+      <c r="T20">
+        <v>0.000866459802568137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.047098</v>
+      </c>
+      <c r="H21">
+        <v>0.141294</v>
+      </c>
+      <c r="I21">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J21">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.001493</v>
+      </c>
+      <c r="O21">
+        <v>0.0001196299819817856</v>
+      </c>
+      <c r="P21">
+        <v>0.0001206970062130259</v>
+      </c>
+      <c r="Q21">
+        <v>2.343910466666667E-05</v>
+      </c>
+      <c r="R21">
+        <v>0.000210951942</v>
+      </c>
+      <c r="S21">
+        <v>4.995643234301513E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.862470589563352E-06</v>
       </c>
     </row>
   </sheetData>
